--- a/1des/fpoo/aula07/correcao/ex1.xlsx
+++ b/1des/fpoo/aula07/correcao/ex1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\fpoo\aula07\correcao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C13088E1-3D22-4947-9E7F-BF608B38F734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D78D7E-C1CA-4665-B198-21CC6F1394CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{DEBDA6BD-5776-4549-A111-7186B796FA76}"/>
   </bookViews>
@@ -66,6 +66,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,7 +110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,12 +427,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8AC510-5283-4060-BF71-6FC1CE17438D}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -450,7 +454,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="3">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -462,11 +466,11 @@
       </c>
       <c r="C2">
         <f>B2*$G$1</f>
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="D2">
         <f>B2+C2</f>
-        <v>3750</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -474,15 +478,15 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2500</v>
+        <v>2499.5</v>
       </c>
       <c r="C3">
-        <f>B3*$G$1</f>
-        <v>625</v>
+        <f t="shared" ref="C3:C6" si="0">B3*$G$1</f>
+        <v>312.4375</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">B3+C3</f>
-        <v>3125</v>
+        <f>B3+C3</f>
+        <v>2811.9375</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -493,12 +497,12 @@
         <v>1200</v>
       </c>
       <c r="C4">
-        <f>B4*$G$1</f>
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <f>B4+C4</f>
+        <v>1350</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -510,12 +514,12 @@
         <v>6000</v>
       </c>
       <c r="C5">
-        <f>B5*$G$1</f>
-        <v>1500</v>
+        <f t="shared" si="0"/>
+        <v>750</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>7500</v>
+        <f t="shared" ref="D5:D6" si="1">B5+C5</f>
+        <v>6750</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -526,12 +530,12 @@
         <v>1800</v>
       </c>
       <c r="C6">
-        <f>B6*$G$1</f>
-        <v>450</v>
+        <f t="shared" si="0"/>
+        <v>225</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>2250</v>
+        <f t="shared" si="1"/>
+        <v>2025</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
